--- a/Excel Lec/Lookups/practice hlookup.xlsx
+++ b/Excel Lec/Lookups/practice hlookup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\DA pyth [Anudip]\Excel Lec\Lookups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navne\OneDrive - GN Group Of Institutes\Desktop\Anudip github\Anudip-LA\Excel Lec\Lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BFE01A-EF32-440E-A744-45102BCC3385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20BEBC7-28BD-49F8-9501-A4C935C28C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A6:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,11 +465,11 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <f>HLOOKUP(I6,A6:G10,3,FALSE)</f>
-        <v>30000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -528,13 +528,13 @@
       </c>
       <c r="J8" t="str">
         <f t="array" ref="J8:L8">HLOOKUP(I6,A6:G10,{2,3,5},FALSE)</f>
-        <v>Samsung</v>
+        <v>Nike</v>
       </c>
       <c r="K8">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="L8" t="str">
-        <v>Black, Blue</v>
+        <v>Yellow, Grey</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
